--- a/medicine/Enfance/Mes_premières_Belles_Histoires/Mes_premières_Belles_Histoires.xlsx
+++ b/medicine/Enfance/Mes_premières_Belles_Histoires/Mes_premières_Belles_Histoires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mes_premi%C3%A8res_Belles_Histoires</t>
+          <t>Mes_premières_Belles_Histoires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tralalire est un magazine français pour les enfants de 2 à 5 ans, publié par Bayard Presse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mes_premi%C3%A8res_Belles_Histoires</t>
+          <t>Mes_premières_Belles_Histoires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque numéro commence par la proposition d'une ritournelle puis une courte histoire, Bienvenue chez Cacahouète, Pouët-Pouët et Patatras (dessinée par Tor Freeman), qui présente le contenu du magazine. Les mêmes personnages réapparaissent sur plusieurs autres pages, dont la double page finale : Bonne Nuit avec Cacahouète, Pouët-Pouët et Patatras.
 Le magazine contient aussi deux courtes bandes dessinées : Lou le loup (dessins de Catherine Proteaux) et Atchoum Tchà (scénario et dessins de Jennifer Dalrymple). Une « grande histoire » et une « petite histoire », dont les auteurs varient à chaque numéro, complètent le magazine.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mes_premi%C3%A8res_Belles_Histoires</t>
+          <t>Mes_premières_Belles_Histoires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la presse écrite   Portail de la littérature d’enfance et de jeunesse   Portail de la France                   </t>
